--- a/medicine/Enfance/Lettres_du_Père_Noël/Lettres_du_Père_Noël.xlsx
+++ b/medicine/Enfance/Lettres_du_Père_Noël/Lettres_du_Père_Noël.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lettres_du_P%C3%A8re_No%C3%ABl</t>
+          <t>Lettres_du_Père_Noël</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lettres du Père Noël (The Father Christmas Letters) est un recueil de lettres écrites et illustrées par J. R. R. Tolkien entre  1920 et 1942, pour ses enfants. Elles sont censées provenir du Père Noël. Elles racontent les aventures du Père Noël et de ses compagnons, l'Ours Polaire et ses neveux Paksu et Valkotukka, ou de l'elfe Ilbereth.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lettres_du_P%C3%A8re_No%C3%ABl</t>
+          <t>Lettres_du_Père_Noël</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Trois ans après la mort de Tolkien, en 1976, Houghton Mifflin publia une première version intitulée The Father Christmas Letters, éditée par Baillie Tolkien, seconde épouse de Christopher Tolkien. Le livre comprenait les illustrations originales pour presque toutes les cartes, mais plusieurs lettres et illustrations manquaient.
 En 1999 il y eut une réédition par Houghton Mifflin sous le titre Letters from Father Christmas, qui ajoutait les lettres et illustrations manquantes. En 2004 cette version fut publiée par HarperCollins.
